--- a/equipment/实训基地人员分数.xlsx
+++ b/equipment/实训基地人员分数.xlsx
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>项目部成员名单</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>贾海港</t>
-  </si>
-  <si>
-    <t>王芷烽</t>
   </si>
   <si>
     <t>高彬</t>
@@ -321,9 +318,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -360,9 +357,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,15 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,7 +393,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,29 +423,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,17 +462,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,17 +478,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,181 +512,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,41 +818,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,6 +833,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,6 +870,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -916,9 +911,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,137 +939,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1108,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,10 +1475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1501,7 +1504,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="15"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" ht="29.1" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -1528,7 +1531,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2198,7 +2201,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="8">
@@ -2228,14 +2231,14 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:15">
-      <c r="A29" s="8"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="8">
         <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>100</v>
       </c>
       <c r="E29" s="7"/>
@@ -2249,17 +2252,18 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7">
-        <f>D29-E29-F29-G29-H29-I29-J29-K29-L29-M29-N29</f>
         <v>100</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:15">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="B30" s="8">
         <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="8">
         <v>100</v>
@@ -2280,13 +2284,13 @@
     </row>
     <row r="31" customHeight="1" spans="1:15">
       <c r="A31" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="8">
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8">
         <v>100</v>
@@ -2305,40 +2309,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:15">
-      <c r="A32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="8">
-        <v>30</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="8">
-        <v>100</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
